--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="264">
   <si>
     <r>
       <rPr>
@@ -129,15 +129,203 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0246T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300079右散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3#，4#穴底部顶针高：0.4-0.57MM.（焦克武 2018/3/19）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙诺成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0244T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300077右散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300077散热器新模仁（AM0244T-AO1+ AM0244T-BO1）：69.2±0.2实测68.97，需修模
+见附件图示尺寸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300076左散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0451T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">018AV1.0支架/019V1.0支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品填充有30%缺口断裂！修改分流道！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0213T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF180底座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.入料口易拉伤，模具固定板螺丝断.（焦克武  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0148T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6425753 catpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0148T）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0299T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300131后盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1#，2#穴位外筋位冲蚀多肉，2#穴密封槽内多肉.（依工程和品保判定为准）
+2.报修主管：焦克武    报修日期：2018/3/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0147T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6425752 catpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0147T）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD4主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、更换BBB中子进行试模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300127散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王慧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM1437W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-42940-01桌腿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50083687支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.尺寸NG.(焦克武 2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、更换EEE中子进行试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0076T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000585连接器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.流道顶针断.（黄红凯  2018/3/18）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0034T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC70后盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.一侧孔边镶件断差10条.（焦克武 2018/3/19）</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000153</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">侯晓</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0421T-02</t>
   </si>
   <si>
@@ -147,31 +335,16 @@
     <t xml:space="preserve">1.顶针毛刺，模具需回火.（焦克武 2018/3/17）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0281T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD6主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.更换年份章，更换周章，更换H中子.（焦克武  2018/3/17）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0076T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000585连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.流道顶针断.（黄红凯  2018/3/18）</t>
+    <t xml:space="preserve">100MR001-1803000156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0417T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3164446散热片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针卡死，顶针断.（陈雪峰  2018/3/18）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000157</t>
@@ -189,34 +362,32 @@
     <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙诺成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0417T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3164446散热片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针卡死，顶针断.（陈雪峰  2018/3/18）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000152</t>
+    <t xml:space="preserve">100MR001-1803000149</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0124T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5底壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.孔内毛边厚，合模线毛边大，断差，右侧滑块易进料.（焦克武 2018/3/17）急！！！</t>
+    <t xml:space="preserve">AM0339T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3060934散热器下盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0386T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560401-00102上盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.入料口冲蚀.(依工程和品保判定为准）
+2.报修主管：邵静   报修日期：2018/3/5</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000148</t>
@@ -232,31 +403,6 @@
 建议将模芯尺寸由6调整至7</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0386T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560401-00102上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.入料口冲蚀.(依工程和品保判定为准）
-2.报修主管：邵静   报修日期：2018/3/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0339T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3060934散热器下盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000151</t>
   </si>
   <si>
@@ -269,34 +415,10 @@
     <t xml:space="preserve">1.模具表面喷砂有印痕，烤漆后NG.（焦克武 2018/3/17）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000137</t>
+    <t xml:space="preserve">100MR001-1803000143</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0122T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5盖子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.下滑块易进料，斜导柱螺丝断，卡模.（焦克武 2018/3/15）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0218T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF180装饰环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯孔毛边厚，易欠铸，台阶，内筋条位凹陷，粘膜抛光.（焦克武 2018/3/15）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000143</t>
   </si>
   <si>
     <t xml:space="preserve">ZM0064T</t>
@@ -324,6 +446,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0218T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF180装饰环</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯孔毛边厚，易欠铸，台阶，内筋条位凹陷，粘膜抛光.（焦克武 2018/3/15）急！！！</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000135</t>
   </si>
   <si>
@@ -337,48 +471,12 @@
 2.部分顶针需要去除（见附件）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0083T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B264机箱底壳（B264下盖）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.上滑块镶件断一根，侧滑块模芯弯，模芯拉模.（周清  2018/3/14）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000113</t>
+    <t xml:space="preserve">100MR001-1803000117</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-14</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0086T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5D上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.边缘缺料，依品保判定图为准.（焦克武 2018/3/14）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0222T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDR底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000117</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0302T-02</t>
   </si>
   <si>
@@ -386,21 +484,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.模具表面冲蚀，需降面处理.（焦克武 2018/3/14）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张文祥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000112</t>
@@ -416,6 +499,30 @@
 2.报修主管：焦克武 报修日期：2018/3/14</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0086T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5D上盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.边缘缺料，依品保判定图为准.（焦克武 2018/3/14）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张文祥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000121</t>
   </si>
   <si>
@@ -426,22 +533,22 @@
 2、2D图中154#尺寸3.0±0.3尺寸超差，目前高度尺寸只有2.0左右，请参照附件3D进行修模</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000105</t>
+    <t xml:space="preserve">100MR001-1803000119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0222T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR底座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000101</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0303T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2001N凸台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.渣包顶针断.（黄红凯  2018/3/12）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000101</t>
   </si>
   <si>
     <t xml:space="preserve">AM0465T</t>
@@ -454,19 +561,6 @@
 2.产品表面有凹痕</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0265T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC-80壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.侧滑块断裂，需维修.（邵静 2018/3/11）急！！！
-2.上滑块模芯断，卡排气，卡定模，模面顶针高，模面飞料严重.</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000095</t>
   </si>
   <si>
@@ -510,12 +604,36 @@
 2.报修主管：邵静  报修日期：2018/3/9</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0001W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533540安全轴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品缺料，拉模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0297T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300129支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品鉴报修：定模5.5镶件塌边变形，更换镶件。</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000076</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-08</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0289T</t>
   </si>
   <si>
@@ -523,30 +641,6 @@
   </si>
   <si>
     <t xml:space="preserve">大唐报修：叶片进料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0297T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300129支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品鉴报修：定模5.5镶件塌边变形，更换镶件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0001W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">533540安全轴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品缺料，拉模</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000072</t>
@@ -1029,7 +1123,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A2:H83"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A2:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1090,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H83"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -1133,7 +1227,7 @@
       </c>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1252,7 @@
       </c>
       <c r="I2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1277,7 @@
       </c>
       <c r="I3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1302,7 @@
       </c>
       <c r="I4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1216,1188 +1310,1188 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="I14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="I16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="I18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="745.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="C24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="I29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="92.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="745.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="92.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="I41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="I44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="I49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="C50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="I51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="6" t="n">
@@ -2408,781 +2502,229 @@
       </c>
       <c r="I52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="I53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="I54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="I55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="I56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="I58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="I59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="I60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="745.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="92.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I83" s="0"/>
-    </row>
+    <row r="61" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -1184,7 +1184,7 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H60"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1200,7 @@
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -2725,10 +2725,6 @@
     <row r="81" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="83" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -129,15 +129,182 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0397T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摩托车下壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0397更換日期章(17更換為18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙诺成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0113T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定模面凹凸线痕，孔边缘结构凹凸不平，模具喷细砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0396T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摩托车上壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. AM0396 部品更換日期章(17更換為18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0148T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6425753 catpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针印太深-------修改顶针印与产品表面齐平。见附件！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0085T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817223上盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、产品裂纹较多，需改善
+2、产品散热片充填不良
+3、模具修改为650T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0176T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一体机6-机身</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针断，滑块碰伤.（焦克武  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0063T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206相机座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSS尺寸小修模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0086T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817244底壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、产品裂纹较多，需改善
+2、产品侧面充填不良
+3、模具修改为650T机台使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0147T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6425752 catpart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针印太深------修改至与产品表面齐平。见附件！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0299T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300131后盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1#，2#穴位外筋位冲蚀多肉，2#穴密封槽内多肉.（依工程和品保判定为准）
+2.报修主管：焦克武    报修日期：2018/3/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0413T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC120一级入力盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0421T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-300182-01框架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针毛刺，模具需回火.（焦克武 2018/3/17）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0147T）</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000160</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">侯晓</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0246T-02</t>
   </si>
   <si>
@@ -147,10 +314,64 @@
     <t xml:space="preserve">1.3#，4#穴底部顶针高：0.4-0.57MM.（焦克武 2018/3/19）急！！！</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0148T）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300127散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐小建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM1437W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-42940-01桌腿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0451T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">018AV1.0支架/019V1.0支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品填充有30%缺口断裂！修改分流道！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0034T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC70后盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.一侧孔边镶件断差10条.（焦克武 2018/3/19）</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙诺成</t>
   </si>
   <si>
     <t xml:space="preserve">AM0244T</t>
@@ -175,24 +396,9 @@
     <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0451T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">018AV1.0支架/019V1.0支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品填充有30%缺口断裂！修改分流道！</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000168</t>
   </si>
   <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0213T</t>
   </si>
   <si>
@@ -202,182 +408,10 @@
     <t xml:space="preserve">1.入料口易拉伤，模具固定板螺丝断.（焦克武  2018/3/19）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0148T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6425753 catpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0148T）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0299T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300131后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1#，2#穴位外筋位冲蚀多肉，2#穴密封槽内多肉.（依工程和品保判定为准）
-2.报修主管：焦克武    报修日期：2018/3/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0147T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6425752 catpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0147T）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、更换BBB中子进行试模</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0295T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300127散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王慧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM1437W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700-42940-01桌腿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50083687支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.尺寸NG.(焦克武 2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、更换EEE中子进行试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0076T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000585连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.流道顶针断.（黄红凯  2018/3/18）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0034T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC70后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.一侧孔边镶件断差10条.（焦克武 2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0421T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-300182-01框架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针毛刺，模具需回火.（焦克武 2018/3/17）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0417T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3164446散热片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针卡死，顶针断.（陈雪峰  2018/3/18）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0413T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC120一级入力盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000149</t>
+    <t xml:space="preserve">100MR001-1803000146</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0339T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3060934散热器下盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000146</t>
   </si>
   <si>
     <t xml:space="preserve">AM0386T-02</t>
@@ -390,6 +424,24 @@
 2.报修主管：邵静   报修日期：2018/3/5</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0339T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3060934散热器下盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具表面喷砂有印痕，烤漆后NG.（焦克武 2018/3/17）</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000148</t>
   </si>
   <si>
@@ -403,34 +455,10 @@
 建议将模芯尺寸由6调整至7</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0113T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具表面喷砂有印痕，烤漆后NG.（焦克武 2018/3/17）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000143</t>
+    <t xml:space="preserve">100MR001-1803000141</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0064T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7250软板支架(1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1#穴定模模芯断，3#穴台阶.（陈雪峰  2018/3/16）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000141</t>
   </si>
   <si>
     <t xml:space="preserve">AM0203T</t>
@@ -446,18 +474,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0218T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF180装饰环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯孔毛边厚，易欠铸，台阶，内筋条位凹陷，粘膜抛光.（焦克武 2018/3/15）急！！！</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000135</t>
   </si>
   <si>
@@ -465,6 +481,9 @@
   </si>
   <si>
     <t xml:space="preserve">AM0417T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3164446散热片</t>
   </si>
   <si>
     <t xml:space="preserve">1.局部孔位置度超差（详见尺寸报告）
@@ -499,18 +518,6 @@
 2.报修主管：焦克武 报修日期：2018/3/14</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0086T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5D上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.边缘缺料，依品保判定图为准.（焦克武 2018/3/14）</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000120</t>
   </si>
   <si>
@@ -520,17 +527,10 @@
     <t xml:space="preserve">AM0279T</t>
   </si>
   <si>
+    <t xml:space="preserve">FD4主体</t>
+  </si>
+  <si>
     <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、99中子极化片高度超差 此中子已镀膜 中子尾部减铁0.03MM
-2、2D图中154#尺寸3.0±0.3尺寸超差，目前高度尺寸只有2.0左右，请参照附件3D进行修模</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000119</t>
@@ -576,47 +576,19 @@
     <t xml:space="preserve">1.顶针凹，流道顶针断，耳朵拐角处冲蚀.（孟祥坤  2018/3/10）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0146T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6175235螺纹头</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更换18年年份章及月份章</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0293T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300125后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1#穴顶针硬毛边.（依工程和品保判定为准）
-2.报修主管：邵静  报修日期：2018/3/9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000078</t>
+    <t xml:space="preserve">100MR001-1803000076</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-08</t>
   </si>
   <si>
-    <t xml:space="preserve">ZM0001W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">533540安全轴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品缺料，拉模</t>
+    <t xml:space="preserve">AM0289T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300121散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大唐报修：叶片进料</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000080</t>
@@ -631,32 +603,19 @@
     <t xml:space="preserve">品鉴报修：定模5.5镶件塌边变形，更换镶件。</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0289T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300121散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大唐报修：叶片进料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000072</t>
+    <t xml:space="preserve">100MR001-1803000073</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0053T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7020镜头后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针凹.（依工程和品保判定为准），边缘裂纹.
-2.报修主管：邵静  报修日期：2018/3/6</t>
+    <t xml:space="preserve">ZM6416B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-左支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具压伤.（纪永福  2018/3/7）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000064</t>
@@ -669,33 +628,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.2#卡模，多肉，冲蚀.（邵静  2018/3/6）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM6416B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-左支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具压伤.（纪永福  2018/3/7）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0069T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCD镜头座-M12，半球13-金属镜头座M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1#，2#，3#，4#模芯后退，需维修.（纪永福  2018/3/5）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000022</t>
@@ -742,21 +674,6 @@
 2.报修主管：邵静  报修日期：2018/1/29</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1802000071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0056T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7080镜头盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.浇口套老化Z1510011，模面冲蚀要求降面.（焦克武  2018/2/11）</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1802000061</t>
   </si>
   <si>
@@ -785,33 +702,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.拐角处多肉，需修模.（周清  2018/2/7）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1802000026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0057T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7130底基座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模具降面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1802000023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0054T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7050叉架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模具降面、喷砂（动定模）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1801000206</t>
@@ -827,10 +717,22 @@
 2.报修主管：焦克武  报修日期：2018/1/25</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1801000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0143T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC18支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">镁瑞保修——模具降面</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1801000156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-22</t>
   </si>
   <si>
     <t xml:space="preserve">ZM0135T</t>
@@ -843,18 +745,6 @@
 2.报修主管：张彦朋  报修日期：2018/1/19   急！！！</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1801000163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0143T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC18支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">镁瑞保修——模具降面</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1801000144</t>
   </si>
   <si>
@@ -868,12 +758,6 @@
 2.报修主管：焦克武   报修日期：2018/1/19 急！！！</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1801000142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.筋位多肉，外观面冲蚀多肉，降面处理 （以工程和品保判定为准）</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1712000164</t>
   </si>
   <si>
@@ -905,6 +789,12 @@
   </si>
   <si>
     <t xml:space="preserve">2017-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0146T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6175235螺纹头</t>
   </si>
   <si>
     <t xml:space="preserve">1.滑块列入易损件，制作滑块备品*3套（大+小）</t>
@@ -1123,14 +1013,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A2:H60"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="62.996336996337"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1025641025641"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.8681318681319"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3919413919414"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
@@ -1184,19 +1074,19 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4029304029304"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.4029304029304"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.4065934065934"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1025641025641"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.4065934065934"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7875457875458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7875457875458"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.5018315018315"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3919413919414"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5018315018315"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="75.7875457875458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="76.8534798534799"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
@@ -1227,7 +1117,7 @@
       </c>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1250,9 +1140,8 @@
       <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1275,9 +1164,8 @@
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1285,263 +1173,253 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="92.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
@@ -1550,17 +1428,16 @@
       <c r="H14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
@@ -1575,517 +1452,496 @@
       <c r="H15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="0"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="I20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="I21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="I22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="I24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="I29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="I30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="745.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="0"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33" s="0"/>
+        <v>146</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="0"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="C36" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>159</v>
@@ -2100,92 +1956,88 @@
       <c r="H36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="92.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>177</v>
@@ -2200,9 +2052,8 @@
       <c r="H40" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>180</v>
       </c>
@@ -2210,163 +2061,157 @@
         <v>181</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="C42" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="I43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="C45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="E45" s="7" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6" t="n">
@@ -2375,9 +2220,8 @@
       <c r="H47" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>209</v>
       </c>
@@ -2385,346 +2229,153 @@
         <v>210</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>211</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="I50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="I53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="196">
   <si>
     <r>
       <rPr>
@@ -129,15 +129,61 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐小建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0076T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000585连接器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙诺成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0296T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300128散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.小柱子尺寸NG,圆柱顶针点高.（焦克武 2018/3/20）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0435T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300188固定器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1#，2#穴槽内模崩多肉，1#柱子底孔处多肉，表面多肉.（依工程和品保判定为准）
+2.报修主管：焦克武   报修日期：2018/3/14</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000184</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-20</t>
   </si>
   <si>
-    <t xml:space="preserve">李龙</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0397T</t>
   </si>
   <si>
@@ -150,9 +196,6 @@
     <t xml:space="preserve">100MR001-1803000175</t>
   </si>
   <si>
-    <t xml:space="preserve">孙诺成</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0113T-02</t>
   </si>
   <si>
@@ -162,6 +205,21 @@
     <t xml:space="preserve">定模面凹凸线痕，孔边缘结构凹凸不平，模具喷细砂</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0176T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一体机6-机身</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针断，滑块碰伤.（焦克武  2018/3/19）</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000183</t>
   </si>
   <si>
@@ -175,21 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. AM0396 部品更換日期章(17更換為18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0148T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6425753 catpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针印太深-------修改顶针印与产品表面齐平。见附件！</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000176</t>
@@ -206,30 +249,6 @@
 3、模具修改为650T</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0176T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一体机6-机身</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针断，滑块碰伤.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0063T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206相机座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSS尺寸小修模</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000177</t>
   </si>
   <si>
@@ -244,22 +263,95 @@
 3、模具修改为650T机台使用</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0147T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6425752 catpart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针印太深------修改至与产品表面齐平。见附件！</t>
+    <t xml:space="preserve">100MR001-1803000160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0246T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300079右散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3#，4#穴底部顶针高：0.4-0.57MM.（焦克武 2018/3/19）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM1437W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-42940-01桌腿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300127散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0034T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC70后盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.一侧孔边镶件断差10条.（焦克武 2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0244T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300077右散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300077散热器新模仁（AM0244T-AO1+ AM0244T-BO1）：69.2±0.2实测68.97，需修模
+见附件图示尺寸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300076左散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0413T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC120一级入力盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-19</t>
   </si>
   <si>
     <t xml:space="preserve">AM0299T</t>
@@ -272,146 +364,22 @@
 2.报修主管：焦克武    报修日期：2018/3/14</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0413T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC120一级入力盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0421T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-300182-01框架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针毛刺，模具需回火.（焦克武 2018/3/17）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0147T）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0246T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300079右散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3#，4#穴底部顶针高：0.4-0.57MM.（焦克武 2018/3/19）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模脚增加刻字（刻字内容：ZM0148T）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0295T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300127散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐小建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM1437W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700-42940-01桌腿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0451T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">018AV1.0支架/019V1.0支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品填充有30%缺口断裂！修改分流道！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0034T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC70后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.一侧孔边镶件断差10条.（焦克武 2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0244T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300077右散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300077散热器新模仁（AM0244T-AO1+ AM0244T-BO1）：69.2±0.2实测68.97，需修模
-见附件图示尺寸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300076左散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0213T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF180底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.入料口易拉伤，模具固定板螺丝断.（焦克武  2018/3/19）</t>
+    <t xml:space="preserve">100MR001-1803000149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0339T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3060934散热器下盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-17</t>
   </si>
   <si>
     <t xml:space="preserve">AM0386T-02</t>
@@ -424,24 +392,6 @@
 2.报修主管：邵静   报修日期：2018/3/5</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0339T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3060934散热器下盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具表面喷砂有印痕，烤漆后NG.（焦克武 2018/3/17）</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000148</t>
   </si>
   <si>
@@ -453,6 +403,12 @@
   <si>
     <t xml:space="preserve">模芯尺寸错误，加工后口部无倒角。
 建议将模芯尺寸由6调整至7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具表面喷砂有印痕，烤漆后NG.（焦克武 2018/3/17）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000141</t>
@@ -490,12 +446,39 @@
 2.部分顶针需要去除（见附件）</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张文祥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD4主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0222T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR底座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000117</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0302T-02</t>
   </si>
   <si>
@@ -503,46 +486,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.模具表面冲蚀，需降面处理.（焦克武 2018/3/14）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM1571W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0316上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针处多肉，边缘断差，凹陷，料头处缺料.（依工程和品保判定为准）
-2.报修主管：焦克武 报修日期：2018/3/14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张文祥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0222T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDR底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000101</t>
@@ -591,34 +534,10 @@
     <t xml:space="preserve">大唐报修：叶片进料</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0297T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300129支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品鉴报修：定模5.5镶件塌边变形，更换镶件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000073</t>
+    <t xml:space="preserve">100MR001-1803000064</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM6416B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-左支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具压伤.（纪永福  2018/3/7）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000064</t>
   </si>
   <si>
     <t xml:space="preserve">AM0280T-02</t>
@@ -771,18 +690,6 @@
   </si>
   <si>
     <t xml:space="preserve">入料口孔拉模后，孔小修模做模芯可替换(尺寸做中下限，大了装配松会有影响)，流道看可否加辅助流道（再与孙经理讨论一下）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1712000099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、模具定模多肉，模崩，影响装配，后工序返工浪费时间，请加急安排定模降面处理。</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1711000017</t>
@@ -1013,14 +920,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A2:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.8681318681319"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3919413919414"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.8388278388278"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.6813186813187"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
@@ -1072,21 +979,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I65536"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7875457875458"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7875457875458"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.5018315018315"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3919413919414"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.5018315018315"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1758241758242"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1758241758242"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.6007326007326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6813186813187"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6007326007326"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="76.8534798534799"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="78.018315018315"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
@@ -1117,7 +1024,7 @@
       </c>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1165,7 +1072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1189,15 +1096,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>31</v>
@@ -1213,12 +1120,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>20</v>
@@ -1242,1141 +1149,865 @@
         <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="92.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C27" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="565.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="235">
   <si>
     <r>
       <rPr>
@@ -129,43 +129,279 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000190</t>
+    <t xml:space="preserve">100MR001-1803000215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐小建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0086T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5D上盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.拐角处凹陷.(焦克武 2018/3/23）此为补单.急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0293T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300125后盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针毛刺，1#穴冲蚀多肉.（焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙诺成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0296T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300128散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.小柱子尺寸NG.（焦克武  2018/3/22）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0213T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF180底座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.卡模，顶针断，需更换.（焦克武 2018/3/22）急！!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0341T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR8盖子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，模芯孔拉模.（焦克武 2018/3/23）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王慧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50083687支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.长方形孔缺料，粘膜，浇口套裂.(焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD4主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.中子断，周章处多肉，连接头处多肉，卡勾处多肉.（焦克武 2018/3/19）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模崩，多肉.（焦克武  2018/3/22）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0265T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC-80壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙.（焦克武 2018/3/22）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0082T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B298机箱盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具上下滑块毛边大，油缸漏油，孔径尺寸偏大0.02mm.（周清  2018/3/22）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0387T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560401-00103底壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.正反两面边缘冲蚀多肉.（陈雪峰  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0083T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B264机箱底壳（B264下盖）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修整NG尺寸
+2.更改日期章</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0081T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B264机箱盖（B264上盖）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修整NG尺寸
+2.更换日期章</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、更换CCC中子及中子编号C进行试模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0459T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-310181-01支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、客户设变，结构薄弱处加肉处理；请依附件客户提供设变3D进行设变
+2、尾部渣包顶出易崩料；渣包请增加R角以增加渣包强度；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0428T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317H40壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更换4.0模芯，已购6根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0346T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU4主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、更换CCC中子及中子编号C进行试模！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0312T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300132散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">佳合朔
+更换镶件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300127散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大唐报修：1.动模叶片进料2.动模顶针高低不平3.进料口出龟裂，卡模。  附样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张文祥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0281T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD6主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">极化片尺寸NG
+1.101中子极化片宽度尺寸台阶面整体减铁0.05mm
+2.99中子极化片宽度尺寸台阶面整体减铁0.05mm
+3.103中子极化片宽度尺寸台阶面整体减铁0.05mm
+4.119中子外圆减铁  单边0.03mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000187</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐小建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0076T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000585连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙诺成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0296T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300128散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.小柱子尺寸NG,圆柱顶针点高.（焦克武 2018/3/20）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李龙</t>
   </si>
   <si>
     <t xml:space="preserve">AM0435T</t>
@@ -178,39 +414,38 @@
 2.报修主管：焦克武   报修日期：2018/3/14</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000184</t>
+    <t xml:space="preserve">100MR001-1803000190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0076T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000585连接器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000177</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-20</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0397T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摩托车下壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0397更換日期章(17更換為18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0113T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定模面凹凸线痕，孔边缘结构凹凸不平，模具喷细砂</t>
+    <t xml:space="preserve">MM0086T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817244底壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、产品裂纹较多，需改善
+2、产品侧面充填不良
+3、模具修改为650T机台使用</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000179</t>
   </si>
   <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0176T</t>
   </si>
   <si>
@@ -218,21 +453,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.顶针断，滑块碰伤.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">侯晓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0396T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摩托车上壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. AM0396 部品更換日期章(17更換為18)</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000176</t>
@@ -249,45 +469,19 @@
 3、模具修改为650T</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0086T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">817244底壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、产品裂纹较多，需改善
-2、产品侧面充填不良
-3、模具修改为650T机台使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000160</t>
+    <t xml:space="preserve">100MR001-1803000157</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-19</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0246T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300079右散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3#，4#穴底部顶针高：0.4-0.57MM.（焦克武 2018/3/19）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM1437W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700-42940-01桌腿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+    <t xml:space="preserve">AM0413T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC120一级入力盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000162</t>
@@ -296,22 +490,7 @@
     <t xml:space="preserve">AM0295T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">300127散热器</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0034T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC70后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.一侧孔边镶件断差10条.（焦克武 2018/3/19）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000167</t>
@@ -327,28 +506,16 @@
 见附件图示尺寸</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300076左散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0413T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC120一级入力盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
+    <t xml:space="preserve">100MR001-1803000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM1437W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-42940-01桌腿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000169</t>
@@ -364,6 +531,18 @@
 2.报修主管：焦克武    报修日期：2018/3/14</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300076左散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000149</t>
   </si>
   <si>
@@ -403,12 +582,6 @@
   <si>
     <t xml:space="preserve">模芯尺寸错误，加工后口部无倒角。
 建议将模芯尺寸由6调整至7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具表面喷砂有印痕，烤漆后NG.（焦克武 2018/3/17）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000141</t>
@@ -446,34 +619,25 @@
 2.部分顶针需要去除（见附件）</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0222T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR底座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000120</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张文祥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
     <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0222T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDR底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000117</t>
@@ -608,21 +772,6 @@
     <t xml:space="preserve">1.动模卡模，斜销断.（张彦朋   2018/2/9）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1802000058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0079T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDM06框架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.拐角处多肉，需修模.（周清  2018/2/7）</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1801000206</t>
   </si>
   <si>
@@ -649,32 +798,6 @@
   </si>
   <si>
     <t xml:space="preserve">镁瑞保修——模具降面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1801000156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0135T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249495011滑块</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1#,3#穴位顶针硬毛刺.（以工程和品保判定为准）
-2.报修主管：张彦朋  报修日期：2018/1/19   急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1801000144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0302T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，料管水管孔需加大，模面飞料,需重新配套.
-2.报修主管：焦克武   报修日期：2018/1/19 急！！！</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1712000164</t>
@@ -920,14 +1043,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A2:H42"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.8388278388278"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.6813186813187"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.7106227106227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0695970695971"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
@@ -979,21 +1102,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1758241758242"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1758241758242"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.6007326007326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6813186813187"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6007326007326"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6593406593407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6593406593407"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.6959706959707"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0695970695971"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6959706959707"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="78.018315018315"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="79.0842490842491"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.52747252747253"/>
   </cols>
   <sheetData>
@@ -1024,7 +1147,7 @@
       </c>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1056,487 +1179,487 @@
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="970.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>106</v>
@@ -1552,7 +1675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>109</v>
       </c>
@@ -1560,7 +1683,7 @@
         <v>110</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>111</v>
@@ -1576,436 +1699,676 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
         <v>195</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
   <si>
     <r>
       <rPr>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000215</t>
+    <t xml:space="preserve">100MR001-1803000227</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-23</t>
@@ -138,67 +138,96 @@
     <t xml:space="preserve">徐小建</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0086T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5D上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.拐角处凹陷.(焦克武 2018/3/23）此为补单.急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0293T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300125后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针毛刺，1#穴冲蚀多肉.（焦克武 2018/3/23）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000212</t>
+    <t xml:space="preserve">AM0177T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300法兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针断，6#穴位产品凹陷，浇口套冷却水管装不上.（焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0363T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC062二级入力盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，40.9mm减小到40.7mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000216</t>
   </si>
   <si>
     <t xml:space="preserve">孙诺成</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0296T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300128散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.小柱子尺寸NG.（焦克武  2018/3/22）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0213T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DF180底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.卡模，顶针断，需更换.（焦克武 2018/3/22）急！!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000210</t>
+    <t xml:space="preserve">AM0453T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、CNC无法定位加工，加工尺寸极不稳定；
+2、取消两侧小滑块。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0313T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300133散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工程报修：换镶件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000217</t>
   </si>
   <si>
     <t xml:space="preserve">李龙</t>
   </si>
   <si>
-    <t xml:space="preserve">AM0341T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR8盖子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，模芯孔拉模.（焦克武 2018/3/23）急！！！</t>
+    <t xml:space="preserve">AM0435T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300188固定器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0435T 模具设变，请修模：参照附件图示说明和最新3D图档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0412T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC80MCB散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0412T VC80MLB散热器根部R角与图面不符，需加大至1mm（见附件图示）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0452T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860.06三角架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.产品有取消顶针后的印迹；
+2.产品厚度尺寸超差。</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000214</t>
@@ -216,133 +245,72 @@
     <t xml:space="preserve">1.长方形孔缺料，粘膜，浇口套裂.(焦克武 2018/3/23）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000193</t>
+    <t xml:space="preserve">100MR001-1803000228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0434T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-25152凸台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.渣包顶针断，需更换.（陈雪峰  2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0396T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摩托车上壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.渣包易粘膜，模具保养，1#穴位多肉.（焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0417T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3164446散热片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.更改入料结构，参照备模结构
+2.调整部分孔位结构（见尺寸报告）
+3.部分模芯拉模，更换模芯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0397T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摩托车下壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模面清理，模具保养.（焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0146T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6175235螺纹头</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针毛边，位置度NG.（张彦朋    2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000199</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.中子断，周章处多肉，连接头处多肉，卡勾处多肉.（焦克武 2018/3/19）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模崩，多肉.（焦克武  2018/3/22）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0265T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC-80壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙.（焦克武 2018/3/22）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">侯晓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0082T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B298机箱盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具上下滑块毛边大，油缸漏油，孔径尺寸偏大0.02mm.（周清  2018/3/22）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0387T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560401-00103底壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.正反两面边缘冲蚀多肉.（陈雪峰  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0083T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B264机箱底壳（B264下盖）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.修整NG尺寸
-2.更改日期章</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0081T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B264机箱盖（B264上盖）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.修整NG尺寸
-2.更换日期章</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、更换CCC中子及中子编号C进行试模</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0459T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-310181-01支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、客户设变，结构薄弱处加肉处理；请依附件客户提供设变3D进行设变
-2、尾部渣包顶出易崩料；渣包请增加R角以增加渣包强度；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0428T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317H40壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更换4.0模芯，已购6根</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000199</t>
   </si>
   <si>
     <t xml:space="preserve">AM0346T</t>
@@ -398,38 +366,141 @@
 4.119中子外圆减铁  单边0.03mm</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD4主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.中子断，周章处多肉，连接头处多肉，卡勾处多肉.（焦克武 2018/3/19）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模崩，多肉.（焦克武  2018/3/22）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0082T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B298机箱盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具上下滑块毛边大，油缸漏油，孔径尺寸偏大0.02mm.（周清  2018/3/22）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、更换CCC中子及中子编号C进行试模</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0459T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-310181-01支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、客户设变，结构薄弱处加肉处理；请依附件客户提供设变3D进行设变
+2、尾部渣包顶出易崩料；渣包请增加R角以增加渣包强度；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0081T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B264机箱盖（B264上盖）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修整NG尺寸
+2.更换日期章</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0387T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560401-00103底壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.正反两面边缘冲蚀多肉.（陈雪峰  2018/3/19）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0265T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC-80壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙.（焦克武 2018/3/22）急！！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0076T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000585连接器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0435T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300188固定器</t>
   </si>
   <si>
     <t xml:space="preserve">1.1#，2#穴槽内模崩多肉，1#柱子底孔处多肉，表面多肉.（依工程和品保判定为准）
 2.报修主管：焦克武   报修日期：2018/3/14</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0076T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000585连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
+    <t xml:space="preserve">100MR001-1803000176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0085T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817223上盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、产品裂纹较多，需改善
+2、产品散热片充填不良
+3、模具修改为650T</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20</t>
   </si>
   <si>
     <t xml:space="preserve">MM0086T</t>
@@ -443,32 +514,6 @@
 3、模具修改为650T机台使用</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0176T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一体机6-机身</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针断，滑块碰伤.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0085T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">817223上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、产品裂纹较多，需改善
-2、产品散热片充填不良
-3、模具修改为650T</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000157</t>
   </si>
   <si>
@@ -484,13 +529,16 @@
     <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0295T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
+    <t xml:space="preserve">100MR001-1803000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM1437W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-42940-01桌腿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000167</t>
@@ -506,16 +554,25 @@
 见附件图示尺寸</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM1437W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700-42940-01桌腿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+    <t xml:space="preserve">100MR001-1803000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300076左散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000169</t>
@@ -531,34 +588,10 @@
 2.报修主管：焦克武    报修日期：2018/3/14</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300076左散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000149</t>
+    <t xml:space="preserve">100MR001-1803000146</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0339T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3060934散热器下盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具需回火，模芯变形需更换，模具需保养喷砂.（焦克武  2018/3/17）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000146</t>
   </si>
   <si>
     <t xml:space="preserve">AM0386T-02</t>
@@ -569,19 +602,6 @@
   <si>
     <t xml:space="preserve">1.入料口冲蚀.(依工程和品保判定为准）
 2.报修主管：邵静   报修日期：2018/3/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0469T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500602-00156支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">模芯尺寸错误，加工后口部无倒角。
-建议将模芯尺寸由6调整至7</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000141</t>
@@ -612,19 +632,28 @@
     <t xml:space="preserve">AM0417T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">3164446散热片</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.局部孔位置度超差（详见尺寸报告）
 2.部分顶针需要去除（见附件）</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0302T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3081699壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具表面冲蚀，需降面处理.（焦克武 2018/3/14）急！！！</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000119</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0222T</t>
   </si>
   <si>
@@ -632,24 +661,6 @@
   </si>
   <si>
     <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、量产中子 FT1 EEE 103中子极化片高度尺寸超差，中子请前推（中子尾部承靠面请补铁0.05MM）；</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0302T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3081699壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具表面冲蚀，需降面处理.（焦克武 2018/3/14）急！！！</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000101</t>
@@ -717,12 +728,6 @@
   </si>
   <si>
     <t xml:space="preserve">2018-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0452T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">860.06三角架</t>
   </si>
   <si>
     <t xml:space="preserve">1.溢料渣包搭接到底面！
@@ -819,12 +824,6 @@
   </si>
   <si>
     <t xml:space="preserve">2017-11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0146T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6175235螺纹头</t>
   </si>
   <si>
     <t xml:space="preserve">1.滑块列入易损件，制作滑块备品*3套（大+小）</t>
@@ -1102,10 +1101,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -1147,7 +1146,7 @@
       </c>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1179,49 +1178,49 @@
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1230,52 +1229,52 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>39</v>
@@ -1291,63 +1290,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>52</v>
@@ -1363,255 +1362,255 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="475.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="970.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="970.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>97</v>
@@ -1627,748 +1626,772 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="C31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="C42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="C43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="C45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="C48" s="7" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="260">
   <si>
     <r>
       <rPr>
@@ -129,43 +129,164 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000227</t>
+    <t xml:space="preserve">100MR001-1803000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐小建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0094T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8681壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模仁压伤.（纪永福  2018/3/26）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM6416B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-左支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2#穴位顶针毛刺.（黄红凯  2018/3/25）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0066T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34012596齿轮盘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9#穴位模芯断，12#穴位U形槽模芯变形.（陈雪峰 2018/3/25）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD4主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模具油缸漏油.（焦克武  2018/3/24）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0083T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1207上盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.表面龟裂，顶针痕，顶针断.（焦克武  2018/3/25）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0224T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR驱动上壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针断.（邵静  2018/3/26）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0305T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2003N凸台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4#穴孔口边冲蚀，3#穴U形槽边有凹陷，4个穴位合模线处毛边厚.（邵静  2018/3/26）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0284T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300110散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0067T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34012597齿轮盘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针毛刺，2#穴位U形槽毛刺.（黄红凯  2018/3/25）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0291T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300123支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大唐报修：1.进料口柱子通孔，通止规通，附样品   2.卡口方孔有台阶，附样品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0428T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317H40壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.动模冷却水管漏水（点接处，卡箍处，密封圈处）
+2.报修主管：邵静   报修日期：2018/3/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙诺成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0309T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4685后部支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.更换年份章.（焦克武  2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000216</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐小建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0177T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300法兰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针断，6#穴位产品凹陷，浇口套冷却水管装不上.（焦克武 2018/3/23）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">侯晓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0363T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EC062二级入力盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，40.9mm减小到40.7mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙诺成</t>
   </si>
   <si>
     <t xml:space="preserve">AM0453T</t>
@@ -178,6 +299,33 @@
 2、取消两侧小滑块。</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0363T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC062二级入力盖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，40.9mm减小到40.7mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0435T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300188固定器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0435T 模具设变，请修模：参照附件图示说明和最新3D图档</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000223</t>
   </si>
   <si>
@@ -190,31 +338,16 @@
     <t xml:space="preserve">工程报修：换镶件。</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0435T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300188固定器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0435T 模具设变，请修模：参照附件图示说明和最新3D图档</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0412T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC80MCB散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0412T VC80MLB散热器根部R角与图面不符，需加大至1mm（见附件图示）</t>
+    <t xml:space="preserve">100MR001-1803000229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0397T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摩托车下壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模面清理，模具保养.（焦克武 2018/3/23）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000224</t>
@@ -228,45 +361,6 @@
   <si>
     <t xml:space="preserve">1.产品有取消顶针后的印迹；
 2.产品厚度尺寸超差。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王慧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50083687支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.长方形孔缺料，粘膜，浇口套裂.(焦克武 2018/3/23）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0434T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-25152凸台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.渣包顶针断，需更换.（陈雪峰  2018/3/23）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0396T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摩托车上壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.渣包易粘膜，模具保养，1#穴位多肉.（焦克武 2018/3/23）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000222</t>
@@ -283,16 +377,16 @@
 3.部分模芯拉模，更换模芯</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0397T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摩托车下壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模面清理，模具保养.（焦克武 2018/3/23）</t>
+    <t xml:space="preserve">100MR001-1803000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50083687支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.长方形孔缺料，粘膜，浇口套裂.(焦克武 2018/3/23）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000226</t>
@@ -307,10 +401,61 @@
     <t xml:space="preserve">1.顶针毛边，位置度NG.（张彦朋    2018/3/23）</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0412T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC80MCB散热器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0412T VC80MLB散热器根部R角与图面不符，需加大至1mm（见附件图示）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0177T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300法兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.顶针断，6#穴位产品凹陷，浇口套冷却水管装不上.（焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0396T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">摩托车上壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.渣包易粘膜，模具保养，1#穴位多肉.（焦克武 2018/3/23）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0265T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VC-80壳体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙.（焦克武 2018/3/22）急！！！</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-22</t>
   </si>
   <si>
     <t xml:space="preserve">AM0346T</t>
@@ -372,16 +517,10 @@
     <t xml:space="preserve">AM0279T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.中子断，周章处多肉，连接头处多肉，卡勾处多肉.（焦克武 2018/3/19）急！！！</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T</t>
   </si>
   <si>
     <t xml:space="preserve">1.模崩，多肉.（焦克武  2018/3/22）急！！！</t>
@@ -421,19 +560,6 @@
 2、尾部渣包顶出易崩料；渣包请增加R角以增加渣包强度；</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0081T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B264机箱盖（B264上盖）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.修整NG尺寸
-2.更换日期章</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000192</t>
   </si>
   <si>
@@ -446,47 +572,46 @@
     <t xml:space="preserve">1.正反两面边缘冲蚀多肉.（陈雪峰  2018/3/19）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0265T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC-80壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙.（焦克武 2018/3/22）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000190</t>
+    <t xml:space="preserve">100MR001-1803000187</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0076T-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000585连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000187</t>
   </si>
   <si>
     <t xml:space="preserve">1.1#，2#穴槽内模崩多肉，1#柱子底孔处多肉，表面多肉.（依工程和品保判定为准）
 2.报修主管：焦克武   报修日期：2018/3/14</t>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0076T-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000585连接器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0086T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817244底壳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、产品裂纹较多，需改善
+2、产品侧面充填不良
+3、模具修改为650T机台使用</t>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20</t>
   </si>
   <si>
     <t xml:space="preserve">MM0085T</t>
@@ -500,20 +625,6 @@
 3、模具修改为650T</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0086T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">817244底壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、产品裂纹较多，需改善
-2、产品侧面充填不良
-3、模具修改为650T机台使用</t>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000157</t>
   </si>
   <si>
@@ -529,16 +640,13 @@
     <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM1437W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700-42940-01桌腿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+    <t xml:space="preserve">100MR001-1803000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000167</t>
@@ -566,26 +674,16 @@
     <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0295T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0299T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300131后盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1#，2#穴位外筋位冲蚀多肉，2#穴密封槽内多肉.（依工程和品保判定为准）
-2.报修主管：焦克武    报修日期：2018/3/14</t>
+    <t xml:space="preserve">100MR001-1803000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM1437W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-42940-01桌腿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000146</t>
@@ -623,25 +721,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0417T-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.局部孔位置度超差（详见尺寸报告）
-2.部分顶针需要去除（见附件）</t>
+    <t xml:space="preserve">100MR001-1803000119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0222T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR底座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000117</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0302T-02</t>
   </si>
   <si>
@@ -649,18 +746,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.模具表面冲蚀，需降面处理.（焦克武 2018/3/14）急！！！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0222T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDR底座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000101</t>
@@ -722,25 +807,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.2#卡模，多肉，冲蚀.（邵静  2018/3/6）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.溢料渣包搭接到底面！
-2.内部各加宽8MM高0.50MM的筋位及四角退刀位！
-3.从两处封闭分流道！
-4.两处入料封闭完好，不可有溢料，同时增加溢料渣包（同样搭接到底面）！
-5.入料口统一加厚0.5MM！
-6.筋位严重拉模，加强抛光！
-7.侧面为外观面，产品多肉须修复！
-8.底部厚度超差，实测1.65~1.75MM,请检查模具!
-9.4处顶针封闭不可留痕迹!
-10.两侧滑块孔需碰穿！
-11.顶针封闭不可留痕迹!</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000019</t>
@@ -1101,10 +1167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -1146,7 +1212,7 @@
       </c>
       <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1178,49 +1244,49 @@
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1229,505 +1295,501 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="475.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="970.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="475.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>116</v>
@@ -1746,63 +1808,63 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>129</v>
@@ -1818,580 +1880,748 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="970.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="587.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="1893.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H53" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>233</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -29,7 +29,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">   在</t>
     </r>
@@ -39,7 +38,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">amrt310</t>
     </r>
@@ -49,7 +47,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">里未审核的单据</t>
     </r>
@@ -64,7 +61,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EXCEL</t>
     </r>
@@ -74,7 +70,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">工作表标题</t>
     </r>
@@ -86,7 +81,7 @@
     <t xml:space="preserve">列表</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-06 11:14:11</t>
+    <t xml:space="preserve">2018-03-27 10:28:27</t>
   </si>
   <si>
     <t xml:space="preserve">模具维修工单</t>
@@ -98,7 +93,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">AMRT300</t>
     </r>
@@ -108,7 +102,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日期</t>
     </r>
@@ -141,10 +134,80 @@
     <t xml:space="preserve">ZM0094T</t>
   </si>
   <si>
-    <t xml:space="preserve">8681壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模仁压伤.（纪永福  2018/3/26）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8681</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">壳体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模仁压伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（纪永福  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000240</t>
@@ -153,10 +216,80 @@
     <t xml:space="preserve">ZM6416B</t>
   </si>
   <si>
-    <t xml:space="preserve">M-左支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2#穴位顶针毛刺.（黄红凯  2018/3/25）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">M-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位顶针毛刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（黄红凯  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000236</t>
@@ -165,10 +298,116 @@
     <t xml:space="preserve">ZM0066T-03</t>
   </si>
   <si>
-    <t xml:space="preserve">34012596齿轮盘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9#穴位模芯断，12#穴位U形槽模芯变形.（陈雪峰 2018/3/25）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">34012596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">齿轮盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.9#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位模芯断，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">12#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">形槽模芯变形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（陈雪峰 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000239</t>
@@ -177,10 +416,80 @@
     <t xml:space="preserve">AM0279T</t>
   </si>
   <si>
-    <t xml:space="preserve">FD4主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具油缸漏油.（焦克武  2018/3/24）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FD4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">主体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具油缸漏油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000241</t>
@@ -189,10 +498,80 @@
     <t xml:space="preserve">AM0083T</t>
   </si>
   <si>
-    <t xml:space="preserve">1207上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.表面龟裂，顶针痕，顶针断.（焦克武  2018/3/25）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">表面龟裂，顶针痕，顶针断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000232</t>
@@ -201,10 +580,80 @@
     <t xml:space="preserve">AM0224T</t>
   </si>
   <si>
-    <t xml:space="preserve">HDR驱动上壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针断.（邵静  2018/3/26）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">HDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">驱动上壳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">顶针断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000233</t>
@@ -213,10 +662,134 @@
     <t xml:space="preserve">AM0305T</t>
   </si>
   <si>
-    <t xml:space="preserve">A2003N凸台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4#穴孔口边冲蚀，3#穴U形槽边有凹陷，4个穴位合模线处毛边厚.（邵静  2018/3/26）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A2003N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">凸台</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.4#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴孔口边冲蚀，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">形槽边有凹陷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">个穴位合模线处毛边厚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000235</t>
@@ -225,7 +798,24 @@
     <t xml:space="preserve">AM0284T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">300110散热器</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000242</t>
@@ -234,10 +824,116 @@
     <t xml:space="preserve">ZM0067T</t>
   </si>
   <si>
-    <t xml:space="preserve">34012597齿轮盘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针毛刺，2#穴位U形槽毛刺.（黄红凯  2018/3/25）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">34012597</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">齿轮盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">顶针毛刺，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">形槽毛刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（黄红凯  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000238</t>
@@ -246,10 +942,71 @@
     <t xml:space="preserve">AM0291T</t>
   </si>
   <si>
-    <t xml:space="preserve">300123支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大唐报修：1.进料口柱子通孔，通止规通，附样品   2.卡口方孔有台阶，附样品</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大唐报修：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">进料口柱子通孔，通止规通，附样品   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">卡口方孔有台阶，附样品</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000231</t>
@@ -261,11 +1018,72 @@
     <t xml:space="preserve">AM0428T</t>
   </si>
   <si>
-    <t xml:space="preserve">317H40壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.动模冷却水管漏水（点接处，卡箍处，密封圈处）
-2.报修主管：邵静   报修日期：2018/3/26</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">317H40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">壳体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">动模冷却水管漏水（点接处，卡箍处，密封圈处）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">报修主管：邵静   报修日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/26</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000237</t>
@@ -277,10 +1095,80 @@
     <t xml:space="preserve">AM0309T</t>
   </si>
   <si>
-    <t xml:space="preserve">4685后部支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.更换年份章.（焦克武  2018/3/23）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4685</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">后部支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">更换年份章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000216</t>
@@ -292,11 +1180,81 @@
     <t xml:space="preserve">AM0453T</t>
   </si>
   <si>
-    <t xml:space="preserve">860壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、CNC无法定位加工，加工尺寸极不稳定；
-2、取消两侧小滑块。</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">860</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">壳体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CNC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">无法定位加工，加工尺寸极不稳定；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、取消两侧小滑块。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000218</t>
@@ -305,10 +1263,62 @@
     <t xml:space="preserve">AM0363T</t>
   </si>
   <si>
-    <t xml:space="preserve">EC062二级入力盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，40.9mm减小到40.7mm</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EC062</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二级入力盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">40.9mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">减小到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">40.7mm</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000217</t>
@@ -320,10 +1330,62 @@
     <t xml:space="preserve">AM0435T</t>
   </si>
   <si>
-    <t xml:space="preserve">300188固定器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0435T 模具设变，请修模：参照附件图示说明和最新3D图档</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300188</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">固定器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0435T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具设变，请修模：参照附件图示说明和最新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">图档</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000223</t>
@@ -332,7 +1394,24 @@
     <t xml:space="preserve">AM0313T</t>
   </si>
   <si>
-    <t xml:space="preserve">300133散热器</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300133</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">工程报修：换镶件。</t>
@@ -347,7 +1426,60 @@
     <t xml:space="preserve">摩托车下壳体</t>
   </si>
   <si>
-    <t xml:space="preserve">1.模面清理，模具保养.（焦克武 2018/3/23）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模面清理，模具保养</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000224</t>
@@ -356,11 +1488,63 @@
     <t xml:space="preserve">AM0452T</t>
   </si>
   <si>
-    <t xml:space="preserve">860.06三角架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.产品有取消顶针后的印迹；
-2.产品厚度尺寸超差。</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">860.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">三角架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品有取消顶针后的印迹；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品厚度尺寸超差。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000222</t>
@@ -369,12 +1553,82 @@
     <t xml:space="preserve">AM0417T</t>
   </si>
   <si>
-    <t xml:space="preserve">3164446散热片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.更改入料结构，参照备模结构
-2.调整部分孔位结构（见尺寸报告）
-3.部分模芯拉模，更换模芯</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3164446</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热片</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">更改入料结构，参照备模结构
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">调整部分孔位结构（见尺寸报告）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">部分模芯拉模，更换模芯</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000214</t>
@@ -383,10 +1637,80 @@
     <t xml:space="preserve">AH001</t>
   </si>
   <si>
-    <t xml:space="preserve">50083687支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.长方形孔缺料，粘膜，浇口套裂.(焦克武 2018/3/23）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">50083687</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长方形孔缺料，粘膜，浇口套裂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000226</t>
@@ -395,10 +1719,80 @@
     <t xml:space="preserve">ZM0146T</t>
   </si>
   <si>
-    <t xml:space="preserve">6175235螺纹头</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针毛边，位置度NG.（张彦朋    2018/3/23）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6175235</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">螺纹头</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">顶针毛边，位置度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NG.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（张彦朋    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000221</t>
@@ -407,10 +1801,80 @@
     <t xml:space="preserve">AM0412T</t>
   </si>
   <si>
-    <t xml:space="preserve">VC80MCB散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0412T VC80MLB散热器根部R角与图面不符，需加大至1mm（见附件图示）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VC80MCB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0412T VC80MLB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器根部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">角与图面不符，需加大至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（见附件图示）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000227</t>
@@ -419,10 +1883,98 @@
     <t xml:space="preserve">AM0177T</t>
   </si>
   <si>
-    <t xml:space="preserve">1300法兰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针断，6#穴位产品凹陷，浇口套冷却水管装不上.（焦克武 2018/3/23）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">法兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">顶针断，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位产品凹陷，浇口套冷却水管装不上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000230</t>
@@ -434,7 +1986,78 @@
     <t xml:space="preserve">摩托车上壳体</t>
   </si>
   <si>
-    <t xml:space="preserve">1.渣包易粘膜，模具保养，1#穴位多肉.（焦克武 2018/3/23）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">渣包易粘膜，模具保养，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位多肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000206</t>
@@ -449,10 +2072,80 @@
     <t xml:space="preserve">AM0265T</t>
   </si>
   <si>
-    <t xml:space="preserve">VC-80壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙.（焦克武 2018/3/22）急！！！</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VC-80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">壳体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急！！！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000199</t>
@@ -461,10 +2154,80 @@
     <t xml:space="preserve">AM0346T</t>
   </si>
   <si>
-    <t xml:space="preserve">AU4主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、更换CCC中子及中子编号C进行试模！</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AU4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">主体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、更换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子及中子编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">进行试模！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000195</t>
@@ -473,7 +2236,24 @@
     <t xml:space="preserve">AM0312T</t>
   </si>
   <si>
-    <t xml:space="preserve">300132散热器</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">佳合朔
@@ -486,10 +2266,89 @@
     <t xml:space="preserve">AM0295T</t>
   </si>
   <si>
-    <t xml:space="preserve">300127散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大唐报修：1.动模叶片进料2.动模顶针高低不平3.进料口出龟裂，卡模。  附样</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大唐报修：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">动模叶片进料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">动模顶针高低不平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">进料口出龟裂，卡模。  附样</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000204</t>
@@ -501,14 +2360,120 @@
     <t xml:space="preserve">AM0281T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">FD6主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">极化片尺寸NG
-1.101中子极化片宽度尺寸台阶面整体减铁0.05mm
-2.99中子极化片宽度尺寸台阶面整体减铁0.05mm
-3.103中子极化片宽度尺寸台阶面整体减铁0.05mm
-4.119中子外圆减铁  单边0.03mm</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FD6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">主体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">极化片尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NG
+1.101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子极化片宽度尺寸台阶面整体减铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.05mm
+2.99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子极化片宽度尺寸台阶面整体减铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.05mm
+3.103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子极化片宽度尺寸台阶面整体减铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.05mm
+4.119</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子外圆减铁  单边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.03mm</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000193</t>
@@ -517,13 +2482,119 @@
     <t xml:space="preserve">AM0279T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">1.中子断，周章处多肉，连接头处多肉，卡勾处多肉.（焦克武 2018/3/19）急！！！</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子断，周章处多肉，连接头处多肉，卡勾处多肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急！！！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.模崩，多肉.（焦克武  2018/3/22）急！！！</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模崩，多肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急！！！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000208</t>
@@ -532,10 +2603,80 @@
     <t xml:space="preserve">MM0082T</t>
   </si>
   <si>
-    <t xml:space="preserve">B298机箱盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具上下滑块毛边大，油缸漏油，孔径尺寸偏大0.02mm.（周清  2018/3/22）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B298</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">机箱盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具上下滑块毛边大，油缸漏油，孔径尺寸偏大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.02mm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（周清  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000201</t>
@@ -544,7 +2685,60 @@
     <t xml:space="preserve">AM0279T-05</t>
   </si>
   <si>
-    <t xml:space="preserve">1、更换CCC中子及中子编号C进行试模</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、更换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CCC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子及中子编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">进行试模</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000198</t>
@@ -553,11 +2747,99 @@
     <t xml:space="preserve">AM0459T</t>
   </si>
   <si>
-    <t xml:space="preserve">50-310181-01支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、客户设变，结构薄弱处加肉处理；请依附件客户提供设变3D进行设变
-2、尾部渣包顶出易崩料；渣包请增加R角以增加渣包强度；</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">50-310181-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、客户设变，结构薄弱处加肉处理；请依附件客户提供设变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">进行设变
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、尾部渣包顶出易崩料；渣包请增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">角以增加渣包强度；</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000192</t>
@@ -566,10 +2848,80 @@
     <t xml:space="preserve">AM0387T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">560401-00103底壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.正反两面边缘冲蚀多肉.（陈雪峰  2018/3/19）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">560401-00103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">底壳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">正反两面边缘冲蚀多肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（陈雪峰  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000187</t>
@@ -578,8 +2930,106 @@
     <t xml:space="preserve">2018-03-21</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1#，2#穴槽内模崩多肉，1#柱子底孔处多肉，表面多肉.（依工程和品保判定为准）
-2.报修主管：焦克武   报修日期：2018/3/14</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴槽内模崩多肉，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">柱子底孔处多肉，表面多肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（依工程和品保判定为准）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">报修主管：焦克武   报修日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/14</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000190</t>
@@ -588,10 +3038,80 @@
     <t xml:space="preserve">ZM0076T-03</t>
   </si>
   <si>
-    <t xml:space="preserve">3000585连接器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.料头高，毛边厚.（黄红凯  2018/3/21）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3000585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">连接器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">料头高，毛边厚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（黄红凯  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000177</t>
@@ -603,12 +3123,100 @@
     <t xml:space="preserve">MM0086T</t>
   </si>
   <si>
-    <t xml:space="preserve">817244底壳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、产品裂纹较多，需改善
-2、产品侧面充填不良
-3、模具修改为650T机台使用</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">817244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">底壳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、产品裂纹较多，需改善
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、产品侧面充填不良
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、模具修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">650T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">机台使用</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000176</t>
@@ -617,12 +3225,91 @@
     <t xml:space="preserve">MM0085T</t>
   </si>
   <si>
-    <t xml:space="preserve">817223上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、产品裂纹较多，需改善
-2、产品散热片充填不良
-3、模具修改为650T</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">817223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、产品裂纹较多，需改善
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、产品散热片充填不良
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、模具修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">650T</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000157</t>
@@ -634,10 +3321,80 @@
     <t xml:space="preserve">AM0413T</t>
   </si>
   <si>
-    <t xml:space="preserve">EC120一级入力盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.卡模，斜销断.（焦克武   2018/3/18）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EC120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">一级入力盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">卡模，斜销断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000162</t>
@@ -646,7 +3403,60 @@
     <t xml:space="preserve">AM0295T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">1.柱子根部多肉，模芯断.（焦克武  2018/3/19）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">柱子根部多肉，模芯断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000167</t>
@@ -655,11 +3465,99 @@
     <t xml:space="preserve">AM0244T</t>
   </si>
   <si>
-    <t xml:space="preserve">300077右散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300077散热器新模仁（AM0244T-AO1+ AM0244T-BO1）：69.2±0.2实测68.97，需修模
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300077</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">右散热器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300077</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器新模仁（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0244T-AO1+ AM0244T-BO1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">69.2±0.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">实测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">68.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，需修模
 见附件图示尺寸</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000173</t>
@@ -668,10 +3566,44 @@
     <t xml:space="preserve">AM0243T</t>
   </si>
   <si>
-    <t xml:space="preserve">300076左散热器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T-02模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300076</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">左散热器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0243T-02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000161</t>
@@ -680,10 +3612,80 @@
     <t xml:space="preserve">AM1437W</t>
   </si>
   <si>
-    <t xml:space="preserve">700-42940-01桌腿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模芯断，方孔毛边厚.（焦克武 2018/3/19）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">700-42940-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">桌腿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模芯断，方孔毛边厚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000146</t>
@@ -695,11 +3697,90 @@
     <t xml:space="preserve">AM0386T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">560401-00102上盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.入料口冲蚀.(依工程和品保判定为准）
-2.报修主管：邵静   报修日期：2018/3/5</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">560401-00102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">入料口冲蚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">依工程和品保判定为准）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">报修主管：邵静   报修日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/5</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000141</t>
@@ -711,14 +3792,156 @@
     <t xml:space="preserve">AM0203T</t>
   </si>
   <si>
-    <t xml:space="preserve">FD8367V-门盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.产品母模进料侧外围冲蚀多肉（1#&amp;2#均有冲蚀多肉现象）
-2.产品公模分型面多肉，及公模内侧壁多肉，倒扣（1#&amp;2#穴均与冲蚀多肉）《详见图片》
-3.公模侧两穴顶针均高出模面
-4.产品1#穴耳朵孔镶针高出模面
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FD8367V-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">门盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品母模进料侧外围冲蚀多肉（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1#&amp;2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">均有冲蚀多肉现象）
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品公模分型面多肉，及公模内侧壁多肉，倒扣（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1#&amp;2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴均与冲蚀多肉）《详见图片》
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">公模侧两穴顶针均高出模面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴耳朵孔镶针高出模面
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000119</t>
@@ -730,7 +3953,24 @@
     <t xml:space="preserve">AM0222T</t>
   </si>
   <si>
-    <t xml:space="preserve">HDR底座</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">HDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">底座</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">产品表面冲蚀多肉，龟裂，腐蚀点，超出限度，后处理返修增加不良</t>
@@ -742,10 +3982,80 @@
     <t xml:space="preserve">AM0302T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">3081699壳体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模具表面冲蚀，需降面处理.（焦克武 2018/3/14）急！！！</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3081699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">壳体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具表面冲蚀，需降面处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急！！！</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000101</t>
@@ -757,11 +4067,63 @@
     <t xml:space="preserve">AM0465T</t>
   </si>
   <si>
-    <t xml:space="preserve">500602-00148固定板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.产品未端螺牙孔内砂孔严重
-2.产品表面有凹痕</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">500602-00148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">固定板</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品未端螺牙孔内砂孔严重
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">产品表面有凹痕</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000095</t>
@@ -773,10 +4135,80 @@
     <t xml:space="preserve">AM0370T</t>
   </si>
   <si>
-    <t xml:space="preserve">500602-00034支架</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.顶针凹，流道顶针断，耳朵拐角处冲蚀.（孟祥坤  2018/3/10）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">500602-00034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">顶针凹，流道顶针断，耳朵拐角处冲蚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（孟祥坤  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000076</t>
@@ -788,7 +4220,24 @@
     <t xml:space="preserve">AM0289T</t>
   </si>
   <si>
-    <t xml:space="preserve">300121散热器</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">大唐报修：叶片进料</t>
@@ -803,10 +4252,80 @@
     <t xml:space="preserve">AM0280T-02</t>
   </si>
   <si>
-    <t xml:space="preserve">FD6内盖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2#卡模，多肉，冲蚀.（邵静  2018/3/6）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FD6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">内盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">卡模，多肉，冲蚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000019</t>
@@ -815,7 +4334,69 @@
     <t xml:space="preserve">2018-03-02</t>
   </si>
   <si>
-    <t xml:space="preserve">1.斜导柱断.（邵静  2018/3/1）急!!!</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">斜导柱断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">!!!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1802000082</t>
@@ -824,8 +4405,52 @@
     <t xml:space="preserve">2018-02-27</t>
   </si>
   <si>
-    <t xml:space="preserve">1.冲蚀多肉，模崩多肉，品保要求降面处理！（以工程和品保判定为准）
-2.报修主管：邵静  报修日期：2018/1/29</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">冲蚀多肉，模崩多肉，品保要求降面处理！（以工程和品保判定为准）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">报修主管：邵静  报修日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/1/29</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1802000061</t>
@@ -837,10 +4462,80 @@
     <t xml:space="preserve">ZM6422A</t>
   </si>
   <si>
-    <t xml:space="preserve">216057011基座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.动模卡模，斜销断.（张彦朋   2018/2/9）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">216057011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">基座</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">动模卡模，斜销断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（张彦朋   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/2/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1801000206</t>
@@ -852,8 +4547,88 @@
     <t xml:space="preserve">AM0280T</t>
   </si>
   <si>
-    <t xml:space="preserve">1.底面槽冲蚀，2#穴模芯孔拉模，卡模.（以工程和品保判定为准）
-2.报修主管：焦克武  报修日期：2018/1/25</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">底面槽冲蚀，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴模芯孔拉模，卡模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（以工程和品保判定为准）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">报修主管：焦克武  报修日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/1/25</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1801000163</t>
@@ -865,7 +4640,24 @@
     <t xml:space="preserve">AM0143T</t>
   </si>
   <si>
-    <t xml:space="preserve">MC18支架</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MC18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">镁瑞保修——模具降面</t>
@@ -883,7 +4675,51 @@
     <t xml:space="preserve">脚控转轴座</t>
   </si>
   <si>
-    <t xml:space="preserve">入料口孔拉模后，孔小修模做模芯可替换(尺寸做中下限，大了装配松会有影响)，流道看可否加辅助流道（再与孙经理讨论一下）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">入料口孔拉模后，孔小修模做模芯可替换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">尺寸做中下限，大了装配松会有影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，流道看可否加辅助流道（再与孙经理讨论一下）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1711000017</t>
@@ -892,7 +4728,60 @@
     <t xml:space="preserve">2017-11-02</t>
   </si>
   <si>
-    <t xml:space="preserve">1.滑块列入易损件，制作滑块备品*3套（大+小）</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">滑块列入易损件，制作滑块备品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">套（大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">小）</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -908,7 +4797,6 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -930,21 +4818,18 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1016,15 +4901,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,10 +4998,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.7106227106227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="26.0695970695971"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.52747252747253"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.04761904761905"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.4761904761905"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1904761904762"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1167,25 +5051,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.35"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6593406593407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6593406593407"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="12.6959706959707"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0695970695971"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.6959706959707"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="6.00732600732601"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="79.0842490842491"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.52747252747253"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.2380952380952"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="12.0952380952381"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1904761904762"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.0952380952381"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.04761904761905"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="72.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1210,16 +5092,15 @@
       <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1228,7 +5109,6 @@
       <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="6" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +5116,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1252,7 +5132,6 @@
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="6" t="n">
         <v>1</v>
       </c>
@@ -1260,14 +5139,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1276,7 +5155,6 @@
       <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
@@ -1284,14 +5162,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1300,7 +5178,6 @@
       <c r="E5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
@@ -1308,14 +5185,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1324,7 +5201,6 @@
       <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
@@ -1332,14 +5208,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="137.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1348,7 +5224,6 @@
       <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
@@ -1356,14 +5231,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1372,7 +5247,6 @@
       <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +5254,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="47.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1396,18 +5270,18 @@
       <c r="E9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1416,7 +5290,6 @@
       <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
@@ -1424,14 +5297,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1440,22 +5313,21 @@
       <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="430.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1464,7 +5336,6 @@
       <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="7"/>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
@@ -1472,14 +5343,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1488,7 +5359,6 @@
       <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7"/>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +5366,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1512,7 +5382,6 @@
       <c r="E14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
@@ -1520,14 +5389,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="452.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1536,22 +5405,21 @@
       <c r="E15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1560,7 +5428,6 @@
       <c r="E16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="6" t="n">
         <v>1</v>
       </c>
@@ -1568,14 +5435,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1584,31 +5451,29 @@
       <c r="E17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7"/>
       <c r="G17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="7"/>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
@@ -1616,14 +5481,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="250.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1632,7 +5497,6 @@
       <c r="E19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7"/>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +5504,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="475.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1656,7 +5520,6 @@
       <c r="E20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="7"/>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
@@ -1664,14 +5527,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="272.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1680,7 +5543,6 @@
       <c r="E21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="7"/>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +5550,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1704,7 +5566,6 @@
       <c r="E22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="7"/>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
@@ -1712,14 +5573,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1728,7 +5589,6 @@
       <c r="E23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="7"/>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
@@ -1736,14 +5596,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1752,7 +5612,6 @@
       <c r="E24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7"/>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
@@ -1760,23 +5619,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="7"/>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
@@ -1784,14 +5642,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1800,7 +5658,6 @@
       <c r="E26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="7"/>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +5665,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1824,7 +5681,6 @@
       <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="7"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
@@ -1832,14 +5688,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1848,22 +5704,21 @@
       <c r="E28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="7"/>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1872,22 +5727,21 @@
       <c r="E29" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="7"/>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="970.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1896,22 +5750,21 @@
       <c r="E30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="7"/>
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1920,7 +5773,6 @@
       <c r="E31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="7"/>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
@@ -1928,14 +5780,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1944,7 +5796,6 @@
       <c r="E32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="7"/>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +5803,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="407.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1968,7 +5819,6 @@
       <c r="E33" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="7"/>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
@@ -1976,14 +5826,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1992,7 +5842,6 @@
       <c r="E34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="7"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +5849,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2016,7 +5865,6 @@
       <c r="E35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="7"/>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
@@ -2024,14 +5872,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2040,7 +5888,6 @@
       <c r="E36" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="7"/>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
@@ -2048,14 +5895,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="610.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -2064,7 +5911,6 @@
       <c r="E37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="7"/>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
@@ -2072,14 +5918,14 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2088,7 +5934,6 @@
       <c r="E38" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="7"/>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +5941,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="385.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -2112,7 +5957,6 @@
       <c r="E39" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="7"/>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +5964,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -2136,7 +5980,6 @@
       <c r="E40" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="7"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
@@ -2144,14 +5987,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2160,7 +6003,6 @@
       <c r="E41" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="7"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
@@ -2168,14 +6010,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -2184,7 +6026,6 @@
       <c r="E42" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="7"/>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
@@ -2192,14 +6033,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="497.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -2208,7 +6049,6 @@
       <c r="E43" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="7"/>
       <c r="G43" s="6" t="n">
         <v>1</v>
       </c>
@@ -2216,14 +6056,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2232,7 +6072,6 @@
       <c r="E44" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F44" s="7"/>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +6079,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -2256,7 +6095,6 @@
       <c r="E45" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F45" s="7"/>
       <c r="G45" s="6" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +6102,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="362.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -2280,7 +6118,6 @@
       <c r="E46" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F46" s="7"/>
       <c r="G46" s="6" t="n">
         <v>1</v>
       </c>
@@ -2288,14 +6125,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="1127.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2304,7 +6141,6 @@
       <c r="E47" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="7"/>
       <c r="G47" s="6" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +6148,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="340.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -2328,22 +6164,21 @@
       <c r="E48" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F48" s="7"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="295.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -2352,7 +6187,6 @@
       <c r="E49" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="7"/>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
@@ -2360,14 +6194,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>212</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2376,7 +6210,6 @@
       <c r="E50" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="7"/>
       <c r="G50" s="6" t="n">
         <v>1</v>
       </c>
@@ -2384,14 +6217,14 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="317.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -2400,7 +6233,6 @@
       <c r="E51" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F51" s="7"/>
       <c r="G51" s="6" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +6240,14 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -2424,22 +6256,21 @@
       <c r="E52" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F52" s="7"/>
       <c r="G52" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="205.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2448,7 +6279,6 @@
       <c r="E53" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="7"/>
       <c r="G53" s="6" t="n">
         <v>1</v>
       </c>
@@ -2456,14 +6286,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="160.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -2472,7 +6302,6 @@
       <c r="E54" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F54" s="7"/>
       <c r="G54" s="6" t="n">
         <v>1</v>
       </c>
@@ -2480,14 +6309,14 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="542.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -2496,7 +6325,6 @@
       <c r="E55" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F55" s="7"/>
       <c r="G55" s="6" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +6332,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="182.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -2520,7 +6348,6 @@
       <c r="E56" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F56" s="7"/>
       <c r="G56" s="6" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +6355,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="520.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -2544,7 +6371,6 @@
       <c r="E57" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="7"/>
       <c r="G57" s="6" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +6378,14 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="115.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -2568,46 +6394,44 @@
       <c r="E58" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="7"/>
       <c r="G58" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="655.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F59" s="7"/>
       <c r="G59" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="227.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2616,7 +6440,6 @@
       <c r="E60" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="7"/>
       <c r="G60" s="6" t="n">
         <v>1</v>
       </c>

--- a/mysite/File.xlsx
+++ b/mysite/File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="228">
   <si>
     <r>
       <rPr>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">列表</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-27 10:28:27</t>
+    <t xml:space="preserve">2018-03-30 09:12:04</t>
   </si>
   <si>
     <t xml:space="preserve">模具维修工单</t>
@@ -122,35 +122,1183 @@
     <t xml:space="preserve">报修原因</t>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000234</t>
+    <t xml:space="preserve">100MR001-1803000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐小建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FD4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">主体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">滑块镶件崩，内框两侧冲蚀多肉，密封槽拐角处塌陷，更换周期章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急！！！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0210T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">半球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">18M3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">底座</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">柱子根部多肉，卡槽内模崩多肉，顶针断高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0297T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300129</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">品鉴报修：模具滑块断裂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0286T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300118</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">大唐报修：新模滑块筋条和定模筋条有明显断差，附样。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0299T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300131</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">后盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位断差，凹陷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0054T-02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">叉架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">刀痕抛光
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大滑块两个台阶圆实测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">13.8/12.8mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">修至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">13.5/12.5mm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">台阶面加肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.2mm
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">图示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.2±0.08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">尺寸，实测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.264</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，修至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙诺成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0296T-02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">小柱子尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NG.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张文祥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0279T-5 DDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中子方孔尺寸及极化片尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，附件供参考，具体依工程提交蓝光纸本档进行修模；</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0008W</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">91A52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">法兰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.6#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R8.5+0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">内侧断差大，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">毛边厚，产品开模时，易脱落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0043T-02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">140842</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">框镜</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">合模线毛边厚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">侯晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0088T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NAN635J172</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">后框架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">试样缩水、欠铸、尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">等不良现象修正</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T-04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0279T-4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">更换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">新中子进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">T1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">试模；</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0305T-02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">A2003N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">凸台</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">模具回火</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000233</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-26</t>
   </si>
   <si>
-    <t xml:space="preserve">徐小建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0094T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8681</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">壳体</t>
+    <t xml:space="preserve">AM0305T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.4#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴孔口边冲蚀，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">形槽边有凹陷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">个穴位合模线处毛边厚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（邵静  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0067T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">34012597</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">齿轮盘</t>
     </r>
   </si>
   <si>
@@ -170,7 +1318,43 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">模仁压伤</t>
+      <t xml:space="preserve">顶针毛刺，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">穴位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">形槽毛刺</t>
     </r>
     <r>
       <rPr>
@@ -188,16 +1372,16 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">（纪永福  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/26</t>
+      <t xml:space="preserve">（黄红凯  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/25</t>
     </r>
     <r>
       <rPr>
@@ -210,232 +1394,41 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM6416B</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">M-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">左支架</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴位顶针毛刺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（黄红凯  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0066T-03</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">34012596</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">齿轮盘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.9#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴位模芯断，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">12#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">形槽模芯变形</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（陈雪峰 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FD4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">主体</t>
-    </r>
-  </si>
-  <si>
+    <t xml:space="preserve">100MR001-1803000238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0291T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大唐报修：</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -452,69 +1445,139 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">模具油缸漏油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0083T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1207</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">上盖</t>
+      <t xml:space="preserve">进料口柱子通孔，通止规通，附样品   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">卡口方孔有台阶，附样品</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0412T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VC80MCB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0412T VC80MLB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热器根部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">角与图面不符，需加大至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（见附件图示）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0417T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3164446</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">散热片</t>
     </r>
   </si>
   <si>
@@ -534,460 +1597,8 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">表面龟裂，顶针痕，顶针断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0224T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HDR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">驱动上壳</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">顶针断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（邵静  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0305T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A2003N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">凸台</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.4#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴孔口边冲蚀，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">形槽边有凹陷，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">个穴位合模线处毛边厚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（邵静  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0284T-02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0067T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">34012597</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">齿轮盘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">顶针毛刺，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">形槽毛刺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（黄红凯  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0291T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">支架</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">大唐报修：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">进料口柱子通孔，通止规通，附样品   </t>
+      <t xml:space="preserve">更改入料结构，参照备模结构
+</t>
     </r>
     <r>
       <rPr>
@@ -1005,56 +1616,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">卡口方孔有台阶，附样品</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">侯晓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0428T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">317H40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">壳体</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">动模冷却水管漏水（点接处，卡箍处，密封圈处）
+      <t xml:space="preserve">调整部分孔位结构（见尺寸报告）
 </t>
     </r>
     <r>
@@ -1064,117 +1626,148 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">报修主管：邵静   报修日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/26</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙诺成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0309T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4685</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">后部支架</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">更换年份章</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">部分模芯拉模，更换模芯</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0435T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300188</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">固定器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AM0435T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具设变，请修模：参照附件图示说明和最新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">图档</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0363T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EC062</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二级入力盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">40.9mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">减小到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">40.7mm</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-23</t>
   </si>
   <si>
     <t xml:space="preserve">AM0453T</t>
@@ -1257,151 +1850,272 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0363T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">EC062</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">二级入力盖</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">修改镶件尺寸，保证铁圈共用（修改新制作镶件），挂台外径减小，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">40.9mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">减小到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">40.7mm</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0435T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300188</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">固定器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AM0435T </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">模具设变，请修模：参照附件图示说明和最新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">图档</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0313T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300133</t>
+    <t xml:space="preserve">100MR001-1803000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">50083687</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长方形孔缺料，粘膜，浇口套裂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM0082T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B298</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">机箱盖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模具上下滑块毛边大，油缸漏油，孔径尺寸偏大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0.02mm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（周清  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王华军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0265T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VC-80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">壳体</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）急！！！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">300127</t>
     </r>
     <r>
       <rPr>
@@ -1414,18 +2128,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">工程报修：换镶件。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0397T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摩托车下壳体</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">大唐报修：</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1442,7 +2153,69 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">模面清理，模具保养</t>
+      <t xml:space="preserve">动模叶片进料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">动模顶针高低不平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">进料口出龟裂，卡模。  附样</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">100MR001-1803000209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0279T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">模崩，多肉</t>
     </r>
     <r>
       <rPr>
@@ -1460,673 +2233,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">（焦克武 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0452T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">860.06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">三角架</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">产品有取消顶针后的印迹；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">产品厚度尺寸超差。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0417T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3164446</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热片</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">更改入料结构，参照备模结构
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">调整部分孔位结构（见尺寸报告）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">部分模芯拉模，更换模芯</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH001</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">50083687</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">支架</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">长方形孔缺料，粘膜，浇口套裂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">焦克武 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZM0146T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">6175235</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">螺纹头</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">顶针毛边，位置度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NG.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（张彦朋    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0412T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VC80MCB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AM0412T VC80MLB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器根部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">角与图面不符，需加大至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（见附件图示）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0177T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">法兰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">顶针断，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">6#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴位产品凹陷，浇口套冷却水管装不上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0396T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">摩托车上壳体</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">渣包易粘膜，模具保养，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">穴位多肉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王华军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0265T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VC-80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">壳体</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">下滑块粘膜，滑块进料卡死，螺丝断，顶针高，倒拉杆固定位丝孔滑牙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武 </t>
+      <t xml:space="preserve">（焦克武  </t>
     </r>
     <r>
       <rPr>
@@ -2230,131 +2337,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0312T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300132</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">佳合朔
-更换镶件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0295T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300127</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">大唐报修：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">动模叶片进料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">动模顶针高低不平</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">进料口出龟裂，卡模。  附样</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张文祥</t>
   </si>
   <si>
     <t xml:space="preserve">AM0281T-02</t>
@@ -2476,10 +2459,30 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-02</t>
+    <t xml:space="preserve">100MR001-1803000192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0387T-02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">560401-00103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">底壳</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2498,7 +2501,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">中子断，周章处多肉，连接头处多肉，卡勾处多肉</t>
+      <t xml:space="preserve">正反两面边缘冲蚀多肉</t>
     </r>
     <r>
       <rPr>
@@ -2516,7 +2519,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">（焦克武 </t>
+      <t xml:space="preserve">（陈雪峰  </t>
     </r>
     <r>
       <rPr>
@@ -2534,210 +2537,7 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">）急！！！</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000209</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">模崩，多肉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）急！！！</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM0082T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">B298</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">机箱盖</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">模具上下滑块毛边大，油缸漏油，孔径尺寸偏大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">0.02mm.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（周清  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0279T-05</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">、更换</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CCC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">中子及中子编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">进行试模</t>
     </r>
   </si>
   <si>
@@ -2842,88 +2642,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0387T-02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">560401-00103</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">底壳</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">正反两面边缘冲蚀多肉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（陈雪峰  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">100MR001-1803000187</t>
   </si>
   <si>
@@ -3312,12 +3030,74 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">100MR001-1803000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0295T-02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">柱子根部多肉，模芯断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">（焦克武  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2018/3/19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">100MR001-1803000157</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">AM0413T</t>
   </si>
   <si>
@@ -3394,215 +3174,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0295T-02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">柱子根部多肉，模芯断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">（焦克武  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2018/3/19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0244T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300077</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">右散热器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300077</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器新模仁（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AM0244T-AO1+ AM0244T-BO1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">69.2±0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">实测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">68.97</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，需修模
-见附件图示尺寸</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0243T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300076</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">左散热器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AM0243T-02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">模具异常，需修模（见附件图示）顶针高、模芯断、麻点</t>
     </r>
   </si>
   <si>
@@ -4058,32 +3629,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100MR001-1803000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0465T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">500602-00148</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">固定板</t>
+    <t xml:space="preserve">100MR001-1803000095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM0370T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">500602-00034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">支架</t>
     </r>
   </si>
   <si>
@@ -4103,74 +3674,6 @@
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">产品未端螺牙孔内砂孔严重
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">产品表面有凹痕</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0370T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">500602-00034</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">支架</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">顶针凹，流道顶针断，耳朵拐角处冲蚀</t>
     </r>
     <r>
@@ -4209,38 +3712,6 @@
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">100MR001-1803000076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM0289T</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">300121</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">散热器</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">大唐报修：叶片进料</t>
   </si>
   <si>
     <t xml:space="preserve">100MR001-1803000064</t>
@@ -4726,6 +4197,29 @@
   </si>
   <si>
     <t xml:space="preserve">2017-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZM0146T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6175235</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">螺纹头</t>
+    </r>
   </si>
   <si>
     <r>
@@ -5051,10 +4545,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5129,7 +4623,7 @@
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="6" t="n">
@@ -5158,7 +4652,7 @@
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5181,7 +4675,7 @@
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5190,237 +4684,240 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>68</v>
+      <c r="H14" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>72</v>
+      <c r="H15" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>75</v>
@@ -5440,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -5463,286 +4960,286 @@
         <v>82</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>97</v>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>119</v>
+      <c r="H26" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>127</v>
+      <c r="H28" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>134</v>
@@ -5753,7 +5250,7 @@
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5762,165 +5259,165 @@
         <v>137</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>158</v>
@@ -5929,522 +5426,315 @@
         <v>15</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>177</v>
+      <c r="H41" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>207</v>
+      <c r="H48" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>211</v>
+      <c r="H49" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>216</v>
+      <c r="H50" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G55" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G56" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G57" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G58" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
